--- a/240729 Flushing Procedure.xlsx
+++ b/240729 Flushing Procedure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\synca\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\EChem_Auto_Potential_Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3ACEE0-AAF0-4EC9-A204-B723AAF648EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB48F22D-3522-4272-BD63-19896298A56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,19 +400,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H243" sqref="A16:H243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -440,7 +440,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.45500000000000002</v>
       </c>
@@ -470,7 +470,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.46500000000000002</v>
       </c>
@@ -479,7 +479,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.92</v>
       </c>
@@ -488,7 +488,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.93</v>
       </c>
@@ -497,7 +497,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.385</v>
       </c>
@@ -506,7 +506,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1.395</v>
       </c>
@@ -515,7 +515,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1.85</v>
       </c>
@@ -524,7 +524,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1.86</v>
       </c>
@@ -533,7 +533,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2.3149999999999999</v>
       </c>
@@ -542,7 +542,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2.3249999999999997</v>
       </c>
@@ -551,7 +551,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2.78</v>
       </c>
@@ -560,7 +560,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2.7899999999999996</v>
       </c>
@@ -569,7 +569,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3.2450000000000001</v>
       </c>
@@ -578,77 +578,77 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H50">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H66">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H82">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H98">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H114">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H130">
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H146">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H162">
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H178">
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H194">
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H210">
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H226">
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H242">
         <v>16</v>
       </c>
